--- a/biology/Botanique/Marojejya/Marojejya.xlsx
+++ b/biology/Botanique/Marojejya/Marojejya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marojejya est un genre de la famille des Arecaceae (Palmiers), comprenant des espèces natives de Madagascar.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
@@ -545,11 +559,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Jean-Henri Humbert et publié dans  Mémoires de l'Institut Scientifique de Madagascar, Série B, Biologie Végétale  6 : 92. 1955[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Jean-Henri Humbert et publié dans  Mémoires de l'Institut Scientifique de Madagascar, Série B, Biologie Végétale  6 : 92. 1955.
 Étymologie
-  'Marojejya'   : nom générique en relation avec le nom du massif de Marojejy au nord-est de Madagascar, où le palmier M. insignis  a été récolté et décrit pour la première fois[2].
+  'Marojejya'   : nom générique en relation avec le nom du massif de Marojejy au nord-est de Madagascar, où le palmier M. insignis  a été récolté et décrit pour la première fois.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marojejya darianii J.Dransf. &amp; N.W.Uhl, Principes 28: 151 (1984).
 Marojejya insignis Humbert, Mém. Inst. Sci. Madagascar, Sér. B, Biol. Vég. 6: 94 (1955).</t>
